--- a/biology/Neurosciences/Téléchargement_de_l'esprit/Téléchargement_de_l'esprit.xlsx
+++ b/biology/Neurosciences/Téléchargement_de_l'esprit/Téléchargement_de_l'esprit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+          <t>Téléchargement_de_l'esprit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le téléchargement de l'esprit (mind uploading en anglais) est une technique hypothétique qui pourrait permettre de transférer un esprit d'un cerveau à un ordinateur, en l'ayant numérisé au préalable. Un ordinateur pourrait alors reconstituer l'esprit par la simulation de son fonctionnement, sans que l'on ne puisse distinguer un cerveau biologique « réel » d'un cerveau simulé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le téléchargement de l'esprit (mind uploading en anglais) est une technique hypothétique qui pourrait permettre de transférer un esprit d'un cerveau à un ordinateur, en l'ayant numérisé au préalable. Un ordinateur pourrait alors reconstituer l'esprit par la simulation de son fonctionnement, sans que l'on ne puisse distinguer un cerveau biologique « réel » d'un cerveau simulé.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+          <t>Téléchargement_de_l'esprit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondements théoriques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les neurosciences et le courant scientifique du béhaviorisme ou comportementalisme (qui concerne aussi bien les spécialistes du langage que les psychologues) considèrent que des fonctions importantes telles que l'apprentissage, la mémorisation, la conscience, ne sont que les manifestations des processus physiques et électrochimiques à l’œuvre dans le cerveau. À ce titre, ces fonctions sont gouvernées par les lois de la physique.
 Bien que ce point soit historiquement contesté par plusieurs courants philosophiques, de nombreux chercheurs tels que Ray Jackendoff pour la linguistique par exemple, considèrent que les facultés cognitives sont soumises aux lois de la physique; Christof Koch et Giulio Tononi ont publié dans la revue IEEE Spectrum un article dans lequel ils affirment : 
-« la conscience est une part de la nature. Nous pensons qu'elle ne dépend que des mathématiques et de la logique, ainsi que des lois mal connues de la physique, de la chimie et de la biologie; il n'y a rien de magique ou d'un autre monde dans cela[2]. »
+« la conscience est une part de la nature. Nous pensons qu'elle ne dépend que des mathématiques et de la logique, ainsi que des lois mal connues de la physique, de la chimie et de la biologie; il n'y a rien de magique ou d'un autre monde dans cela. »
 Ainsi le concept de téléchargement de l'esprit repose sur une philosophie mécaniste et sa vision matérielle de l'esprit, déniant ainsi toute considération vitaliste de la vie humaine et de la conscience.
-De nombreux scientifiques des disciplines de l'informatique et des neurosciences ont prédit que les ordinateurs seraient capables de reproduire la conscience. Outre Koch et Tononi[2], Douglas Hofstadter[3], Jeff Hawkins[3], Marvin Minsky[4], Randal A. Koene[5] et Rodolfo Llinas[6] ont également pris des positions allant dans ce sens. Selon eux, une machine offrant une capacité de traitement suffisante doit pouvoir servir de substrat pour le chargement d'une copie d'un modèle cognitif extrait d'un cerveau.
+De nombreux scientifiques des disciplines de l'informatique et des neurosciences ont prédit que les ordinateurs seraient capables de reproduire la conscience. Outre Koch et Tononi, Douglas Hofstadter, Jeff Hawkins, Marvin Minsky, Randal A. Koene et Rodolfo Llinas ont également pris des positions allant dans ce sens. Selon eux, une machine offrant une capacité de traitement suffisante doit pouvoir servir de substrat pour le chargement d'une copie d'un modèle cognitif extrait d'un cerveau.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+          <t>Téléchargement_de_l'esprit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>En intelligence artificielle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Même si le principe relève très largement de la science fiction, en théorie, le téléchargement des structures neuronales d'un individu dans un système numérique pourrait permettre de simuler le fonctionnement cognitif d'un individu. Les obstacles à franchir pour atteindre ce type de fonctionnalité sont néanmoins innombrables et très difficiles à résoudre.
 Il conviendrait en effet de disposer d'un modèle computationnel cognitif fiable (c'est-à-dire un système logique susceptible de reproduire le fonctionnement d'un cerveau humain). Certaines recherches vont dans ce sens tel le projet NeuroSpin qui par imagerie cérébrale tente de comprendre certains aspects du modèle cognitif du cerveau humain. La découverte des mécanismes cérébraux ne suffit pas. Il conviendrait également de disposer d'un cerveau synthétique susceptible de recevoir le modèle cognitif.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+          <t>Téléchargement_de_l'esprit</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,15 +600,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Philosophie
-La possibilité de reproduire les mécanismes du cerveau humain dans une machine est étudiée par les philosophes. Elle est questionnée par les tenants de la dualité de l'esprit.
-Le « dualisme » se réfère à une vision de la relation matière-esprit fondée sur l'affirmation que les phénomènes mentaux possèdent des caractéristiques qui sortent du champ de la physique[7]. La thèse du téléchargement de l'esprit a été réfutée par Jean-François Lyotard[8].
-Pour le physicien Lee Smolin[9], une telle machine serait-elle consciente si elle avait des qualia ? Avec les mêmes souvenirs que l'être humain dont elle serait issue, aurait-elle le même futur ?
+          <t>Philosophie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La possibilité de reproduire les mécanismes du cerveau humain dans une machine est étudiée par les philosophes. Elle est questionnée par les tenants de la dualité de l'esprit.
+Le « dualisme » se réfère à une vision de la relation matière-esprit fondée sur l'affirmation que les phénomènes mentaux possèdent des caractéristiques qui sortent du champ de la physique. La thèse du téléchargement de l'esprit a été réfutée par Jean-François Lyotard.
+Pour le physicien Lee Smolin, une telle machine serait-elle consciente si elle avait des qualia ? Avec les mêmes souvenirs que l'être humain dont elle serait issue, aurait-elle le même futur ?
 Néanmoins, la culture et en particulier la littérature de science fiction n'ont pas hésité à explorer le concept de transfert de la personnalité d'un individu dans une machine.
-Futurologie / milieu scientifique
-S'inscrivant dans la mouvance transhumaniste, l'Américain Marvin Minsky (reconnu dans le milieu de la recherche en intelligence artificielle) ainsi que son compatriote Hans Moravec, professeur de robotique à Carnegie Mellon, répandent l'idée de téléchargement de l'esprit (mind uploading) dans la communauté scientifique américaine.
-« Leur théorie est la suivante : notre esprit est une production émergente de l'interaction entre les neurones. Si nous pouvons cartographier ces interactions, et les reproduire sur un autre support, nous aurons effectué une "copie de sauvegarde" de notre personnalité. Reste alors à placer cette copie dans un nouveau corps, artificiel ou même virtuel, pour ressusciter l'individu ainsi préservé »
-— Rémi Sussan, « Demain, tous immortels ? » (2014)[10].</t>
+</t>
         </is>
       </c>
     </row>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+          <t>Téléchargement_de_l'esprit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,13 +635,56 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>En philosophie et en sciences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Futurologie / milieu scientifique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>S'inscrivant dans la mouvance transhumaniste, l'Américain Marvin Minsky (reconnu dans le milieu de la recherche en intelligence artificielle) ainsi que son compatriote Hans Moravec, professeur de robotique à Carnegie Mellon, répandent l'idée de téléchargement de l'esprit (mind uploading) dans la communauté scientifique américaine.
+« Leur théorie est la suivante : notre esprit est une production émergente de l'interaction entre les neurones. Si nous pouvons cartographier ces interactions, et les reproduire sur un autre support, nous aurons effectué une "copie de sauvegarde" de notre personnalité. Reste alors à placer cette copie dans un nouveau corps, artificiel ou même virtuel, pour ressusciter l'individu ainsi préservé »
+— Rémi Sussan, « Demain, tous immortels ? » (2014).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Téléchargement_de_l'esprit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Littérature
-Le thème du téléchargement de l'esprit est traité à diverses reprises dans la littérature de science-fiction.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thème du téléchargement de l'esprit est traité à diverses reprises dans la littérature de science-fiction.
 Dans les derniers volumes de la série La Grande Porte de Frederik Pohl (trois romans et un recueil de nouvelles, de 1977 à 1990), certains citoyens sont « sauvegardés » sous une forme électronique qui leur permet de continuer à vivre après leur mort dans le cyberespace, et d'interagir entre eux mais aussi (beaucoup moins vite) avec les humains matériels. L'un des personnages secondaires se fait volontairement « stocker » pour améliorer sa vie qu'elle juge sans intérêt dans le monde des « barbaques ».
 La thématique de la numérisation de l'esprit est également un élément majeur du roman cyberpunk  Neuromancien et ses suites de William Gibson (publiées entre 1984 et 1988) avec notamment l'IA Neuromancien qui a la capacité de copier l'esprit d'un individu numériquement sous forme de mémoire vive.
 La préservation de l'esprit humain est un des concepts clé de La Grande Rivière du ciel (1987) de Gregory Benford. Les esprits des morts sont numérisés afin d'être utilisés comme conseillers auprès des vivants. Selon la qualité de la récupération, ils peuvent s'approcher d'une personne véritable (aspect), ou n'être que des versions diminuées (visages).
@@ -635,17 +696,121 @@
 Dans la saga de John Scalzi (Le Vieil Homme et la Guerre, Les Brigades fantômes et La Dernière Colonie ; 2005-2007), l'esprit humain est téléchargé sur des ordinateurs avant d'être transféré vers un nouveau corps.
 La question du téléchargement de l'esprit n'est pas uniquement traitée par la littérature de science fiction. Dans La Possibilité d'une île (2005), Michel Houellebecq aborde les thèmes du clonage et de la création artificielle d'une nouvelle espèce. La technologie est présentée comme permettant de vivre, jeune, plusieurs vies successives avec un corps et un esprit identiques.
 Dans Moi, Omega (2022) de Erwan Barillot, une figure de la Silicon Valley pratique en 2064 un « body uploading » qui inclut le téléchargement de l'esprit mais aussi du corps. Cette « montée au ciel » numérique lui permet de prendre le contrôle de la totalité de l'internet des objets et de devenir le Christ-Omega prédit par Teilhard de Chardin.
-Bande dessinée
-Dans l'univers des comics de la maison d’édition américaine Marvel Comics, le personnage du Docteur Fatalis possède une capacité similaire au téléchargement de l'esprit, étant capable de projeter son esprit dans celui d'un autre (avec interversion) pour éviter d'être capturé ou tué.
-Cinéma
-De nombreux films de science fiction utilisent le concept de téléchargement de l'esprit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Téléchargement_de_l'esprit</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'univers des comics de la maison d’édition américaine Marvel Comics, le personnage du Docteur Fatalis possède une capacité similaire au téléchargement de l'esprit, étant capable de projeter son esprit dans celui d'un autre (avec interversion) pour éviter d'être capturé ou tué.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Téléchargement_de_l'esprit</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>De nombreux films de science fiction utilisent le concept de téléchargement de l'esprit.
 Ghost in the Shell (1995) utilise le concept de « Ghost » pour parler d'une personnalité numérique. Dans ce film d'animation, elles sont victimes de piratage informatique de la part du « Puppet Master ».
 Passé virtuel (The Thirteenth Floor) (1999).
 Transcendance (2014).
 Lucy (2014).
-Chappie (2015) utilise le concept de téléchargement de la conscience d'un être humain ainsi pour retrouver l'éternité[réf. nécessaire].
-Télévision
-Dans la série Stargate SG-1, on trouve plusieurs occurrences de téléchargements d'esprit :
+Chappie (2015) utilise le concept de téléchargement de la conscience d'un être humain ainsi pour retrouver l'éternité[réf. nécessaire].</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Téléchargement_de_l'esprit</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans la série Stargate SG-1, on trouve plusieurs occurrences de téléchargements d'esprit :
 l'épisode « Révélations » voit l'esprit de Thor, le commandant suprême de la flotte Asgard, téléchargé dans l'ordinateur du vaisseau d'Anubis.
 l'épisode « Vaisseau fantôme » (Lifeboat) montre les passagers d'un vaisseau transportés en hibernation, leur métabolisme ralenti et leur esprit « sauvegardé » dans l'ordinateur du vaisseau pour éviter que l'esprit ne souffre de l'état du corps.
 l'épisode « Transfert » (Holiday) montre les personnages dont leurs esprits sont transférés d'un corps à l'autre par une méthode sans doute similaire.
@@ -659,16 +824,84 @@
 Dans la série Les Voyageurs du temps (2016-2018), cette technologie est le fondement même de la trame scénaristique de la série. En effet, elle est utilisée pour sauver le monde en transférant des consciences de personnes sur-entraînés dans le corps de certains de nos contemporains du XXIe siècle.
 Dans la série Westworld (série télévisée) (2018), le transfert de l'esprit est l'une des préoccupation de William. Cet exploit est réalisé par Robert Ford dans la saison 2[réf. souhaitée].
 Dans la série Upload (2020), les humains sont capables de se télécharger dans la vie après la mort.
-Dans la série Years and Years (série télévisée), Edith Lyons est la première humaine à télécharger son esprit dans un système informatique en 2034.
-Jeux vidéo
-Dans Deus Ex, JC Denton a la possibilité de fusionner avec l'intelligence artificielle Helios.
+Dans la série Years and Years (série télévisée), Edith Lyons est la première humaine à télécharger son esprit dans un système informatique en 2034.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Téléchargement_de_l'esprit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dans Deus Ex, JC Denton a la possibilité de fusionner avec l'intelligence artificielle Helios.
 Dans EVE Online, Borderlands et SPORE (en phase 5), un joueur qui meurt voit son esprit scanné et téléchargé dans un clone.
 Dans Perfect Dark, Joanna télécharge la personnalité du Dr Carol depuis un ordinateur.
 Dans Portal 2, GLaDOS est en partie basée sur Caroline, la secrétaire du directeur d'Aperture Science.
-Dans Soma, les Hommes créent l'Ark, une machine produisant une réalité virtuelle destinée à accueillir des scans cérébraux pour ensuite quitter la Terre et pérenniser l'humanité[11].
-Dans Cyberpunk 2077, la Mégacorporation Arasaka crée une puce de sauvegarde de l'âme nommée la Relic, cette puce est censée servir à interagir avec des constructs (copie digitalisée d'une personne après sa mort), mais il existe une version capable de télécharger le construct dans un corps vivant, c'est cette version que le protagoniste V vole durant les événements du jeu.
-Jeu de rôle
-Dans Transhuman Space, un jeu de rôle dont l'univers se situe en 2100, le jeu propose ce concept sous une forme « destructive », le cerveau étant découpé en tranches moléculaires par un robot « buisson » aux bras fractals, pour être numérisé. Ce même jeu explore aussi le concept de xoxing, c'est-à-dire de s'affranchir de la barrière 1:1 (une personne physique pouvant avoir plusieurs copies actives d'elles-mêmes ; plusieurs Einstein, plusieurs Ben Laden, plusieurs « Rambo-like »).</t>
+Dans Soma, les Hommes créent l'Ark, une machine produisant une réalité virtuelle destinée à accueillir des scans cérébraux pour ensuite quitter la Terre et pérenniser l'humanité.
+Dans Cyberpunk 2077, la Mégacorporation Arasaka crée une puce de sauvegarde de l'âme nommée la Relic, cette puce est censée servir à interagir avec des constructs (copie digitalisée d'une personne après sa mort), mais il existe une version capable de télécharger le construct dans un corps vivant, c'est cette version que le protagoniste V vole durant les événements du jeu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Téléchargement_de_l'esprit</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/T%C3%A9l%C3%A9chargement_de_l%27esprit</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jeu de rôle</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans Transhuman Space, un jeu de rôle dont l'univers se situe en 2100, le jeu propose ce concept sous une forme « destructive », le cerveau étant découpé en tranches moléculaires par un robot « buisson » aux bras fractals, pour être numérisé. Ce même jeu explore aussi le concept de xoxing, c'est-à-dire de s'affranchir de la barrière 1:1 (une personne physique pouvant avoir plusieurs copies actives d'elles-mêmes ; plusieurs Einstein, plusieurs Ben Laden, plusieurs « Rambo-like »).</t>
         </is>
       </c>
     </row>
